--- a/Requirements/MenusPseudoCode.xlsx
+++ b/Requirements/MenusPseudoCode.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Rev Log" sheetId="6" r:id="rId1"/>
-    <sheet name="OpeningScreen" sheetId="1" r:id="rId2"/>
+    <sheet name="OpeningMenuScreen" sheetId="1" r:id="rId2"/>
     <sheet name="Option1" sheetId="7" r:id="rId3"/>
     <sheet name="Option2" sheetId="8" r:id="rId4"/>
     <sheet name="Reference" sheetId="5" r:id="rId5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>20x4 Character Display</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Test, change</t>
   </si>
 </sst>
 </file>
@@ -680,6 +683,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,29 +724,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1066,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1099,6 +1102,14 @@
         <v>58</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>42247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1109,9 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1260,20 +1269,20 @@
       <c r="Q5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="66">
+      <c r="R5" s="54">
         <v>1</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="S5" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="54">
         <v>0</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="16"/>
-      <c r="Z5" s="67" t="s">
+      <c r="Z5" s="55" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1454,25 +1463,25 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="57">
         <v>1</v>
       </c>
       <c r="N12" s="35"/>
@@ -1493,25 +1502,25 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="57">
         <v>2</v>
       </c>
       <c r="N13" s="35"/>
@@ -1651,7 +1660,7 @@
       <c r="X3" s="3">
         <v>9</v>
       </c>
-      <c r="Z3" s="68"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -1680,7 +1689,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="43"/>
-      <c r="Z4" s="68"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -1706,7 +1715,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="16"/>
-      <c r="Z5" s="68"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -1714,16 +1723,16 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="58" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="14"/>
@@ -1768,7 +1777,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6:J6" location="OpeningScreen!A1" display="B"/>
+    <hyperlink ref="G6:J6" location="OpeningMenuScreen!A1" display="B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1779,7 +1788,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1873,7 @@
       <c r="X3" s="3">
         <v>9</v>
       </c>
-      <c r="Z3" s="68"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -1893,7 +1902,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="43"/>
-      <c r="Z4" s="68"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
@@ -1919,7 +1928,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="16"/>
-      <c r="Z5" s="68"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -1927,16 +1936,16 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="58" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="14"/>
@@ -1981,7 +1990,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6:J6" location="OpeningScreen!A1" display="B"/>
+    <hyperlink ref="G6:J6" location="OpeningMenuScreen!A1" display="B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2301,7 +2310,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,7 +2322,7 @@
     <col min="24" max="24" width="17.28515625" customWidth="1"/>
     <col min="25" max="25" width="10.140625" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2466,13 +2475,13 @@
       <c r="W4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Y4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="54" t="s">
+      <c r="Z4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="54">
+      <c r="AA4" s="65">
         <v>3</v>
       </c>
       <c r="AB4" s="11" t="s">
@@ -2541,9 +2550,9 @@
       <c r="W5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
       <c r="AB5" s="17" t="s">
         <v>20</v>
       </c>
@@ -2610,9 +2619,9 @@
       <c r="W6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
       <c r="AB6" s="17" t="s">
         <v>22</v>
       </c>
@@ -2679,13 +2688,13 @@
       <c r="W7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="57" t="s">
+      <c r="Y7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="57" t="s">
+      <c r="Z7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="57">
+      <c r="AA7" s="68">
         <v>16</v>
       </c>
       <c r="AB7" s="24" t="s">
@@ -2693,17 +2702,17 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
       <c r="AB8" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
       <c r="AB9" s="24" t="s">
         <v>31</v>
       </c>
@@ -2713,9 +2722,9 @@
         <v>32</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
       <c r="AB10" s="24" t="s">
         <v>33</v>
       </c>
@@ -2744,9 +2753,9 @@
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
       <c r="AB11" s="24" t="s">
         <v>34</v>
       </c>
@@ -2775,9 +2784,9 @@
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="24" t="s">
         <v>35</v>
       </c>
@@ -2806,13 +2815,13 @@
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
-      <c r="Y13" s="60" t="s">
+      <c r="Y13" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="60" t="s">
+      <c r="Z13" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="60">
+      <c r="AA13" s="59">
         <v>10</v>
       </c>
       <c r="AB13" s="29" t="s">
@@ -2843,37 +2852,37 @@
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
       <c r="AB14" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
       <c r="AB16" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y17" s="63" t="s">
+      <c r="Y17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="63" t="s">
+      <c r="Z17" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="63">
+      <c r="AA17" s="62">
         <v>5</v>
       </c>
       <c r="AB17" s="30" t="s">
@@ -2881,41 +2890,41 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
       <c r="AB18" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
       <c r="AB19" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
       <c r="AB21" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
       <c r="AB22" s="30" t="s">
         <v>49</v>
       </c>
@@ -3090,18 +3099,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="Y7:Y12"/>
+    <mergeCell ref="Z7:Z12"/>
+    <mergeCell ref="AA7:AA12"/>
     <mergeCell ref="Y13:Y16"/>
     <mergeCell ref="Z13:Z16"/>
     <mergeCell ref="AA13:AA16"/>
     <mergeCell ref="Y17:Y22"/>
     <mergeCell ref="Z17:Z22"/>
     <mergeCell ref="AA17:AA22"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="Y7:Y12"/>
-    <mergeCell ref="Z7:Z12"/>
-    <mergeCell ref="AA7:AA12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements/MenusPseudoCode.xlsx
+++ b/Requirements/MenusPseudoCode.xlsx
@@ -8,18 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Rev Log" sheetId="6" r:id="rId1"/>
-    <sheet name="OpeningMenuScreen" sheetId="1" r:id="rId2"/>
-    <sheet name="Option1" sheetId="7" r:id="rId3"/>
-    <sheet name="Option2" sheetId="8" r:id="rId4"/>
-    <sheet name="Reference" sheetId="5" r:id="rId5"/>
-    <sheet name="Working" sheetId="4" r:id="rId6"/>
+    <sheet name="OpeningMainScreen" sheetId="1" r:id="rId2"/>
+    <sheet name="MainMenuScreen" sheetId="10" r:id="rId3"/>
+    <sheet name="OpeningKettleScreens" sheetId="9" r:id="rId4"/>
+    <sheet name="MainKettleScreens" sheetId="11" r:id="rId5"/>
+    <sheet name="KettleMonitor" sheetId="4" r:id="rId6"/>
+    <sheet name="KettleSettings" sheetId="12" r:id="rId7"/>
+    <sheet name="KettleDiagnositc" sheetId="13" r:id="rId8"/>
+    <sheet name="Reference" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="113">
   <si>
     <t>20x4 Character Display</t>
   </si>
@@ -118,9 +121,6 @@
     <t>Sol #1 Active</t>
   </si>
   <si>
-    <t>Press encoder button to go to a menu to change settings</t>
-  </si>
-  <si>
     <t>Sol #2 Active</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>BKOP</t>
   </si>
   <si>
-    <t>Menu Display</t>
-  </si>
-  <si>
     <t>Opening Screen</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Initial Release</t>
   </si>
   <si>
-    <t>Status Display for Each Kettle</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -244,31 +238,130 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Main Screen</t>
-  </si>
-  <si>
-    <t>Hold opening screen for 5 seconds, then goto main screen below</t>
-  </si>
-  <si>
-    <t>p</t>
+    <t>Test, change</t>
+  </si>
+  <si>
+    <t>Opening Main Screen</t>
+  </si>
+  <si>
+    <t>Opening Kettle Screens</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y = minor version number</t>
+  </si>
+  <si>
+    <t>X = major version number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need menu for </t>
+  </si>
+  <si>
+    <t>Calibrate RTDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record option </t>
+  </si>
+  <si>
+    <t>Load program profile</t>
+  </si>
+  <si>
+    <t>Program profile option</t>
+  </si>
+  <si>
+    <t>Hot Liquor Tank</t>
+  </si>
+  <si>
+    <t>Mash/Lauter Tun</t>
+  </si>
+  <si>
+    <t>Boil Kettle</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K…K</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Main Menu Screen</t>
+  </si>
+  <si>
+    <t>Hold opening screen for 5 seconds, then goto</t>
+  </si>
+  <si>
+    <t>main menu screen</t>
+  </si>
+  <si>
+    <t>main kettle screen</t>
+  </si>
+  <si>
+    <t>Main Kettle Screens</t>
+  </si>
+  <si>
+    <t>Full manual mode</t>
+  </si>
+  <si>
+    <t>Pulse width modulation mode</t>
+  </si>
+  <si>
+    <t>Semi-auto mode</t>
+  </si>
+  <si>
+    <t>Full -auto mode</t>
+  </si>
+  <si>
+    <t>Menu updates</t>
+  </si>
+  <si>
+    <t>Settings (timer alarm, reached temp alarm, and thermocouple alarm on/off)</t>
+  </si>
+  <si>
+    <t>Menu Selector</t>
+  </si>
+  <si>
+    <t>"&gt;" Can be in front of and menu item</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>Option 1 Screen</t>
-  </si>
-  <si>
-    <t>Option 2 Screen</t>
+    <t>Diagnostic screen - Arduino output of test points</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Test, change</t>
+    <t>Monitor Display for Each Kettle</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need menus for </t>
+  </si>
+  <si>
+    <t>Settings for Each Kettle</t>
+  </si>
+  <si>
+    <t>Dianostic Screen for Each Kettle</t>
+  </si>
+  <si>
+    <t>Select with encoder</t>
+  </si>
+  <si>
+    <t>Added menus</t>
   </si>
 </sst>
 </file>
@@ -313,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +443,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -611,12 +710,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,17 +768,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -686,8 +788,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,15 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,6 +828,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1069,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,31 +1212,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>42247</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>42247</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
-        <v>42247</v>
-      </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>42248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>42249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1118,104 +1263,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
-      <c r="X3" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1233,117 +1378,114 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="43"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="M5" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="54">
-        <v>1</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="54">
-        <v>0</v>
-      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-      <c r="Z5" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="M6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="P6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14">
+        <v>2</v>
+      </c>
       <c r="S6" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="14">
-        <v>1</v>
-      </c>
-      <c r="V6" s="14">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -1361,209 +1503,79 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="Z10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="AA10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="AB10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>6</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
-        <v>6</v>
-      </c>
-      <c r="V10" s="3">
-        <v>7</v>
-      </c>
-      <c r="W10" s="3">
-        <v>8</v>
-      </c>
-      <c r="X10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="43"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="57" t="s">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="57">
-        <v>1</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="57">
-        <v>2</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="23"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" s="46"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15" s="50" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G12:M12" location="Option1!A1" display="O"/>
-    <hyperlink ref="G13:M13" location="Option2!A1" display="O"/>
+    <hyperlink ref="C15" location="MainMenuScreen!A1" display="Hold opening screen for 5 seconds, then goto main screen below"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1572,104 +1584,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
-      <c r="X3" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="56"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1687,74 +1699,64 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="56"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-      <c r="Z5" s="56"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -1772,126 +1774,195 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G6:J6" location="OpeningMenuScreen!A1" display="B"/>
-  </hyperlinks>
+  <mergeCells count="3">
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z2" t="s">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>79</v>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
-      <c r="X3" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="56"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1900,54 +1971,74 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="56"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-      <c r="Z5" s="56"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>81</v>
-      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -1960,14 +2051,14 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -1985,12 +2076,74 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C11" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="51">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G6:J6" location="OpeningMenuScreen!A1" display="B"/>
+    <hyperlink ref="C11" location="MainKettleScreens!A1" display="main kettle screen"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1998,106 +2151,132 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="S3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="T3" s="3">
         <v>6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="U3" s="3">
         <v>7</v>
       </c>
-      <c r="M3" s="3">
+      <c r="V3" s="3">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="W3" s="3">
         <v>9</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
-      <c r="X3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="E4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -2106,21 +2285,37 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="43"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -2131,24 +2326,46 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>62</v>
+      </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -2156,14 +2373,14 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2181,127 +2398,72 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="Y10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+      <c r="Z10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="48"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
+      <c r="AA10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="48"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2">
+      <c r="AB10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51"/>
-    </row>
-    <row r="21" spans="5:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="52" t="s">
-        <v>54</v>
-      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="64">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="69"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitor!A1" display="M"/>
+    <hyperlink ref="E5:L5" location="KettleSettings!A1" display="S"/>
+    <hyperlink ref="E6:O6" location="KettleDiagnositc!A1" display="D"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2309,21 +2471,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
     <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.140625" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -2331,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3">
         <v>0</v>
       </c>
@@ -2392,22 +2554,10 @@
       <c r="W3" s="3">
         <v>9</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2474,18 +2624,6 @@
       </c>
       <c r="W4" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="Y4" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="65">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -2550,12 +2688,6 @@
       <c r="W5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="17" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -2619,12 +2751,6 @@
       <c r="W6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="17" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
@@ -2688,45 +2814,26 @@
       <c r="W7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="68">
-        <v>16</v>
-      </c>
-      <c r="AB7" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="24" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="24" t="s">
-        <v>33</v>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -2753,11 +2860,17 @@
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="24" t="s">
-        <v>34</v>
+      <c r="Y11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="51">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2784,11 +2897,11 @@
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="24" t="s">
-        <v>35</v>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2815,17 +2928,11 @@
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
-      <c r="Y13" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" s="59">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="29" t="s">
-        <v>38</v>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2852,267 +2959,1040 @@
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="29" t="s">
-        <v>39</v>
+      <c r="Y14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="29" t="s">
-        <v>40</v>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Y16" s="61"/>
       <c r="Z16" s="61"/>
       <c r="AA16" s="61"/>
-      <c r="AB16" s="29" t="s">
+      <c r="AB16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="54">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y24" s="57" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y17" s="62" t="s">
+      <c r="Z24" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="62" t="s">
+      <c r="AA24" s="57">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="62">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="30" t="s">
+    </row>
+    <row r="25" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="30" t="s">
+    <row r="26" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="30" t="s">
+    <row r="27" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="30" t="s">
+    <row r="28" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="30" t="s">
+    <row r="29" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3">
-        <v>5</v>
-      </c>
-      <c r="J25" s="3">
-        <v>6</v>
-      </c>
-      <c r="K25" s="3">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3">
-        <v>8</v>
-      </c>
-      <c r="M25" s="3">
-        <v>9</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>3</v>
-      </c>
-      <c r="R25" s="3">
-        <v>4</v>
-      </c>
-      <c r="S25" s="3">
-        <v>5</v>
-      </c>
-      <c r="T25" s="3">
-        <v>6</v>
-      </c>
-      <c r="U25" s="3">
-        <v>7</v>
-      </c>
-      <c r="V25" s="3">
-        <v>8</v>
-      </c>
-      <c r="W25" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="33"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="37"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="Y7:Y12"/>
-    <mergeCell ref="Z7:Z12"/>
-    <mergeCell ref="AA7:AA12"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Y17:Y22"/>
-    <mergeCell ref="Z17:Z22"/>
-    <mergeCell ref="AA17:AA22"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="Z14:Z19"/>
+    <mergeCell ref="AA14:AA19"/>
+    <mergeCell ref="Y20:Y23"/>
+    <mergeCell ref="Z20:Z23"/>
+    <mergeCell ref="AA20:AA23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="68"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="69"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="68"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="69"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="23"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41"/>
+    </row>
+    <row r="21" spans="5:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Requirements/MenusPseudoCode.xlsx
+++ b/Requirements/MenusPseudoCode.xlsx
@@ -14,15 +14,19 @@
     <sheet name="MainKettleScreens" sheetId="11" r:id="rId5"/>
     <sheet name="KettleMonitor" sheetId="4" r:id="rId6"/>
     <sheet name="KettleSettings" sheetId="12" r:id="rId7"/>
-    <sheet name="KettleDiagnositc" sheetId="13" r:id="rId8"/>
-    <sheet name="Reference" sheetId="5" r:id="rId9"/>
+    <sheet name="KettleSetManual" sheetId="14" r:id="rId8"/>
+    <sheet name="KettleSetPWM" sheetId="15" r:id="rId9"/>
+    <sheet name="KettleSetSemi" sheetId="16" r:id="rId10"/>
+    <sheet name="KettleSetFull" sheetId="17" r:id="rId11"/>
+    <sheet name="KettleDiagnositc" sheetId="13" r:id="rId12"/>
+    <sheet name="Reference" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="135">
   <si>
     <t>20x4 Character Display</t>
   </si>
@@ -307,18 +311,6 @@
     <t>Main Kettle Screens</t>
   </si>
   <si>
-    <t>Full manual mode</t>
-  </si>
-  <si>
-    <t>Pulse width modulation mode</t>
-  </si>
-  <si>
-    <t>Semi-auto mode</t>
-  </si>
-  <si>
-    <t>Full -auto mode</t>
-  </si>
-  <si>
     <t>Menu updates</t>
   </si>
   <si>
@@ -349,9 +341,6 @@
     <t>WORKING</t>
   </si>
   <si>
-    <t xml:space="preserve">Need menus for </t>
-  </si>
-  <si>
     <t>Settings for Each Kettle</t>
   </si>
   <si>
@@ -362,6 +351,87 @@
   </si>
   <si>
     <t>Added menus</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Full-Auto Setting Screen for Each Kettle</t>
+  </si>
+  <si>
+    <t>Semi-Auto Setting Screen for Each Kettle</t>
+  </si>
+  <si>
+    <t>Manual Setting Screen for Each Kettle</t>
+  </si>
+  <si>
+    <t>Select with encoder (move cursor left to right, then down)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>PWM Mode Setting Screen for Each Kettle</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Left side ON/OFF for Solenoid #1</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Right side ON/OFF for Solenoid #2</t>
+  </si>
+  <si>
+    <t>Added more kettle menus</t>
+  </si>
+  <si>
+    <t>Specify duty cycle</t>
+  </si>
+  <si>
+    <t>Specify cycle width</t>
+  </si>
+  <si>
+    <t>Specify burner intensity, low/med/high</t>
+  </si>
+  <si>
+    <t>Specify temperature</t>
+  </si>
+  <si>
+    <t>Specify feedback source</t>
+  </si>
+  <si>
+    <t>Specify burner intensity, low/med/high, based on temperature error</t>
+  </si>
+  <si>
+    <t>error &gt; xx deg high</t>
+  </si>
+  <si>
+    <t>xx&lt;error&lt;xx deg medium</t>
+  </si>
+  <si>
+    <t>error &lt;xx deg low</t>
   </si>
 </sst>
 </file>
@@ -406,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +519,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -723,12 +805,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -792,6 +887,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,6 +912,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,40 +959,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1198,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1356,7 @@
         <v>42248</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,12 +1364,1240 @@
         <v>42249</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>42256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>42263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+    <hyperlink ref="E7:H7" location="KettleSettings!A1" display="B"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11:AB12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+      <c r="D17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+    <hyperlink ref="E7:H7" location="KettleSettings!A1" display="B"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+      <c r="C10" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+    <hyperlink ref="E7:H7" location="KettleSettings!A1" display="B"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
+    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4</v>
+      </c>
+      <c r="T3" s="3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="23"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41"/>
+    </row>
+    <row r="21" spans="5:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1534,25 +2874,25 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="46"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1802,27 +3142,27 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1837,7 +3177,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +3196,7 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,13 +3447,13 @@
       <c r="C11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="Y11" s="51" t="s">
+      <c r="Y11" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="Z11" s="51" t="s">
+      <c r="Z11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="51">
+      <c r="AA11" s="69">
         <v>15</v>
       </c>
       <c r="AB11" s="11" t="s">
@@ -2121,18 +3461,18 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="17" t="s">
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="17" t="s">
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2152,6 +3492,981 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitor!A1" display="M"/>
+    <hyperlink ref="E5:L5" location="KettleSettings!A1" display="S"/>
+    <hyperlink ref="E6:O6" location="KettleDiagnositc!A1" display="D"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20:AB23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="Y11" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="69">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="Y14" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="78">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y20" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="81">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y24" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA24" s="84">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="25:28" x14ac:dyDescent="0.25">
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="Y20:Y23"/>
+    <mergeCell ref="Z20:Z23"/>
+    <mergeCell ref="AA20:AA23"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="Z14:Z19"/>
+    <mergeCell ref="AA14:AA19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -2180,7 +4495,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -2250,33 +4565,37 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="L4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -2293,97 +4612,131 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="P5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="Q5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="61" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>102</v>
-      </c>
+      <c r="E6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="47"/>
       <c r="I6" s="47" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="16"/>
+      <c r="W6" s="61" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -2410,13 +4763,28 @@
         <v>87</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+        <v>116</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
       <c r="Y10" s="4" t="s">
         <v>1</v>
       </c>
@@ -2431,705 +4799,52 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="64">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="68" t="s">
-        <v>101</v>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="69"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4:K4" location="KettleMonitor!A1" display="M"/>
-    <hyperlink ref="E5:L5" location="KettleSettings!A1" display="S"/>
-    <hyperlink ref="E6:O6" location="KettleDiagnositc!A1" display="D"/>
+    <hyperlink ref="E5:J5" location="KettleSetManual!A1" display="M"/>
+    <hyperlink ref="O5:W5" location="KettleSetSemi!A1" display="S"/>
+    <hyperlink ref="O6:W6" location="KettleSetFull!A1" display="F"/>
+    <hyperlink ref="E6:L6" location="KettleSetPWM!A1" display="P"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="3">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3">
-        <v>5</v>
-      </c>
-      <c r="T3" s="3">
-        <v>6</v>
-      </c>
-      <c r="U3" s="3">
-        <v>7</v>
-      </c>
-      <c r="V3" s="3">
-        <v>8</v>
-      </c>
-      <c r="W3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="Y10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="Y11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="51">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="Y14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="60">
-        <v>16</v>
-      </c>
-      <c r="AB14" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA20" s="54">
-        <v>10</v>
-      </c>
-      <c r="AB20" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y24" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA24" s="57">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="Y14:Y19"/>
-    <mergeCell ref="Z14:Z19"/>
-    <mergeCell ref="AA14:AA19"/>
-    <mergeCell ref="Y20:Y23"/>
-    <mergeCell ref="Z20:Z23"/>
-    <mergeCell ref="AA20:AA23"/>
-    <mergeCell ref="Y24:Y29"/>
-    <mergeCell ref="Z24:Z29"/>
-    <mergeCell ref="AA24:AA29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +4870,427 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+      <c r="U3" s="3">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>109</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="31">
+        <v>2</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="64"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="64"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y13" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z13" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="87">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+    <hyperlink ref="E7:H7" location="KettleSettings!A1" display="B"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="D7:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -3300,12 +5435,20 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="65"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -3328,29 +5471,29 @@
     </row>
     <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
-      <c r="C10" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
+      <c r="C10" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
       <c r="Y10" s="4" t="s">
         <v>1</v>
       </c>
@@ -3365,38 +5508,36 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="68"/>
+      <c r="Y11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="72" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="69"/>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -3411,588 +5552,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
+    <hyperlink ref="E7:H7" location="KettleSettings!A1" display="B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="23" width="2.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="3">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3">
-        <v>5</v>
-      </c>
-      <c r="T3" s="3">
-        <v>6</v>
-      </c>
-      <c r="U3" s="3">
-        <v>7</v>
-      </c>
-      <c r="V3" s="3">
-        <v>8</v>
-      </c>
-      <c r="W3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="33"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="16"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="23"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="Y10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="68"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="69"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E4:K4" location="KettleMonitorScreen!A1" display="M"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:X7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="2" customWidth="1"/>
-    <col min="5" max="24" width="2.28515625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>7</v>
-      </c>
-      <c r="W3" s="3">
-        <v>8</v>
-      </c>
-      <c r="X3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="33"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="36"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="38"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="38"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41"/>
-    </row>
-    <row r="21" spans="5:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Requirements/MenusPseudoCode.xlsx
+++ b/Requirements/MenusPseudoCode.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="146">
   <si>
     <t>20x4 Character Display</t>
   </si>
@@ -432,13 +432,46 @@
   </si>
   <si>
     <t>error &lt;xx deg low</t>
+  </si>
+  <si>
+    <t>Added notes</t>
+  </si>
+  <si>
+    <t>Think about scrolling down to get a "back" selection</t>
+  </si>
+  <si>
+    <t>Also think about scrolling down to change feedback sensor</t>
+  </si>
+  <si>
+    <t>and other settings - maybe each monitor will select</t>
+  </si>
+  <si>
+    <t>each mode and what to display/set</t>
+  </si>
+  <si>
+    <t>Code shall have a bypass mode to disable thermocouple</t>
+  </si>
+  <si>
+    <t>interlock on activating Solenoid #1 &amp; #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default code shall have thermocouple bypass mode </t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>(X)</t>
+  </si>
+  <si>
+    <t>Added requirement for a software bypass mode for thermocouples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +507,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -823,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -905,6 +953,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,15 +989,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,6 +1005,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,6 +1438,22 @@
       </c>
       <c r="B9" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>42305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>42316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1638,16 +1711,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1655,10 +1728,10 @@
       <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1938,16 +2011,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1955,10 +2028,10 @@
       <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -2251,16 +2324,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2268,10 +2341,10 @@
       <c r="C12" t="s">
         <v>100</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17"/>
@@ -2874,25 +2947,25 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="46"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3142,27 +3215,27 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>100</v>
       </c>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="17"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -3447,13 +3520,13 @@
       <c r="C11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="Y11" s="69" t="s">
+      <c r="Y11" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="Z11" s="69" t="s">
+      <c r="Z11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="69">
+      <c r="AA11" s="74">
         <v>15</v>
       </c>
       <c r="AB11" s="11" t="s">
@@ -3461,17 +3534,17 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="11" t="s">
         <v>84</v>
       </c>
@@ -3771,24 +3844,24 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3812,7 +3885,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20:AB23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,9 +4233,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="71"/>
       <c r="Y10" s="4" t="s">
         <v>1</v>
       </c>
@@ -4176,101 +4272,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="Y11" s="69" t="s">
+      <c r="C11" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="69" t="s">
+      <c r="Z11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="69">
+      <c r="AA11" s="74">
         <v>3</v>
       </c>
       <c r="AB11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
+      <c r="C12" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
       <c r="AB12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
+      <c r="C13" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
       <c r="AB13" s="17" t="s">
         <v>22</v>
       </c>
@@ -4299,13 +4404,13 @@
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
-      <c r="Y14" s="78" t="s">
+      <c r="Y14" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="78" t="s">
+      <c r="Z14" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="78">
+      <c r="AA14" s="89">
         <v>16</v>
       </c>
       <c r="AB14" s="24" t="s">
@@ -4313,151 +4418,189 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
+      <c r="B15" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
       <c r="AB15" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
+      <c r="C16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
       <c r="AB16" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
       <c r="AB17" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
       <c r="AB18" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
       <c r="AB19" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y20" s="81" t="s">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y20" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="Z20" s="81" t="s">
+      <c r="Z20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" s="81">
+      <c r="AA20" s="83">
         <v>10</v>
       </c>
       <c r="AB20" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
       <c r="AB21" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
       <c r="AB22" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
       <c r="AB23" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y24" s="84" t="s">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y24" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="Z24" s="84" t="s">
+      <c r="Z24" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="AA24" s="84">
+      <c r="AA24" s="86">
         <v>5</v>
       </c>
       <c r="AB24" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
       <c r="AB25" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
       <c r="AB26" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
       <c r="AB27" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
       <c r="AB28" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="25:28" x14ac:dyDescent="0.25">
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
       <c r="AB29" s="30" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="Y14:Y19"/>
+    <mergeCell ref="Z14:Z19"/>
+    <mergeCell ref="AA14:AA19"/>
     <mergeCell ref="Y20:Y23"/>
     <mergeCell ref="Z20:Z23"/>
     <mergeCell ref="AA20:AA23"/>
     <mergeCell ref="Y24:Y29"/>
     <mergeCell ref="Z24:Z29"/>
     <mergeCell ref="AA24:AA29"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="Y14:Y19"/>
-    <mergeCell ref="Z14:Z19"/>
-    <mergeCell ref="AA14:AA19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4799,24 +4942,24 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17"/>
@@ -5183,16 +5326,16 @@
       <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5203,19 +5346,19 @@
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y13" s="87" t="s">
+      <c r="Y13" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="Z13" s="87" t="s">
+      <c r="Z13" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="87">
+      <c r="AA13" s="92">
         <v>3</v>
       </c>
       <c r="AB13" s="62" t="s">
@@ -5223,9 +5366,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
       <c r="AB14" s="62" t="s">
         <v>120</v>
       </c>
@@ -5508,16 +5651,16 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="79">
         <v>1</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5525,10 +5668,10 @@
       <c r="C12" t="s">
         <v>126</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="78"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
